--- a/Deliverable5/processor/testing processor commands.xlsx
+++ b/Deliverable5/processor/testing processor commands.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
   <si>
     <t>ADD</t>
   </si>
@@ -115,12 +115,18 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -168,8 +174,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -506,7 +513,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -532,13 +539,13 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -546,13 +553,13 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -560,13 +567,13 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -574,13 +581,13 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -588,13 +595,13 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -602,73 +609,113 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -676,7 +723,13 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -684,13 +737,13 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -698,13 +751,13 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -712,13 +765,13 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -726,13 +779,13 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -740,13 +793,13 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -754,7 +807,13 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -762,56 +821,61 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
